--- a/artfynd/A 37099-2024 artfynd.xlsx
+++ b/artfynd/A 37099-2024 artfynd.xlsx
@@ -12106,7 +12106,7 @@
         <v>125899180</v>
       </c>
       <c r="B92" t="n">
-        <v>58215</v>
+        <v>58363</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>

--- a/artfynd/A 37099-2024 artfynd.xlsx
+++ b/artfynd/A 37099-2024 artfynd.xlsx
@@ -12106,7 +12106,7 @@
         <v>125899180</v>
       </c>
       <c r="B92" t="n">
-        <v>58363</v>
+        <v>58364</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
